--- a/ChainMaker项目任务分工---腾讯.xlsx
+++ b/ChainMaker项目任务分工---腾讯.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\区块链产品中心\北京链联合项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3B99149-8916-46B8-8416-64E7510E7C13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D2D4DB-B0C9-4C47-9AF5-BEC5A7E5EFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="3540" windowWidth="24000" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要设计" sheetId="2" r:id="rId1"/>
+    <sheet name="编码" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>模块或特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +110,42 @@
   </si>
   <si>
     <t>finnliu(刘长辉)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBFT共识算法集成、4个节点组网</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共识过程的区块同步及验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共识成功的区块同步及验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stoneli(李欣);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储引擎读写集、索性入库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点身份权限管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grpc国密集成、net通道加密国密支持</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外接口及对语言SDK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -262,6 +299,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -271,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +348,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -778,4 +829,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A964F521-0B62-473D-B7E4-DDF09582B67F}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ChainMaker项目任务分工---腾讯.xlsx
+++ b/ChainMaker项目任务分工---腾讯.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\chainmaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D2D4DB-B0C9-4C47-9AF5-BEC5A7E5EFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70FEC7-E44B-4AE8-891B-17D02B9D94CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>模块或特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,14 +121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>共识过程的区块同步及验证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共识成功的区块同步及验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stoneli(李欣);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +139,22 @@
   <si>
     <t>对外接口及对语言SDK</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChainMaker编码分工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共识过程中的区块同步及验证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>共识成功后的区块同步及验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -344,13 +352,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,13 +693,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -836,7 +844,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -848,13 +856,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -893,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -908,20 +916,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -936,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -951,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -962,11 +972,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
